--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1928,9 +1928,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1940,15 +1950,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1967,7 +1968,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1"/>
@@ -2008,7 +2008,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2052,7 @@
         <xdr:cNvPr id="3" name="Obraz 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2098,7 @@
             <xdr:cNvPr id="2" name="pole tekstowe 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2309,7 +2309,7 @@
             <xdr:cNvPr id="3" name="pole tekstowe 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3110,16 +3110,16 @@
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
@@ -3613,65 +3613,65 @@
       <c r="L12" s="32"/>
     </row>
     <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="112"/>
+      <c r="E16" s="110"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="109"/>
+      <c r="E17" s="113"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="112"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="109"/>
+      <c r="E19" s="113"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="108"/>
+      <c r="E20" s="112"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="107"/>
+      <c r="E21" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3693,7 +3693,7 @@
   <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,101 +3997,101 @@
       <c r="L16" s="32"/>
     </row>
     <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
     </row>
     <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="115"/>
+      <c r="E20" s="116"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="118"/>
+      <c r="E21" s="119"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="116"/>
+      <c r="E22" s="117"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="117"/>
+      <c r="E23" s="118"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="116"/>
+      <c r="E24" s="117"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="117"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="116"/>
+      <c r="E26" s="117"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="117"/>
+      <c r="E27" s="118"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="116"/>
+      <c r="E28" s="117"/>
     </row>
     <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="113"/>
+      <c r="E29" s="114"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D30" s="100"/>
@@ -4595,8 +4595,8 @@
         <v>1</v>
       </c>
       <c r="M11" s="34"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
@@ -4755,6 +4755,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4949,15 +4958,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4970,6 +4970,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4988,14 +4996,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="FI_Process" sheetId="2" r:id="rId5"/>
     <sheet name="Supply" sheetId="3" r:id="rId6"/>
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
-    <sheet name="Demand" sheetId="9" r:id="rId8"/>
+    <sheet name="Grid" sheetId="13" r:id="rId8"/>
+    <sheet name="Demand" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -521,8 +522,52 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="183">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1050,6 +1095,27 @@
   </si>
   <si>
     <t>Domestic minning of hard coal</t>
+  </si>
+  <si>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>Low Voltage Electricity</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>PRE_TRANS_HV_LV</t>
+  </si>
+  <si>
+    <t>Transmission and distribution</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>PJ/Pja</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1325,43 +1391,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
@@ -1370,21 +1399,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1479,138 +1493,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1662,17 +1544,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1741,7 +1612,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1776,158 +1647,114 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1935,13 +1762,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1950,14 +1777,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1965,7 +1786,50 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2008,7 +1872,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Obraz 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +1962,7 @@
             <xdr:cNvPr id="2" name="pole tekstowe 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2309,7 +2173,7 @@
             <xdr:cNvPr id="3" name="pole tekstowe 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3110,16 +2974,16 @@
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
@@ -3379,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,36 +3280,36 @@
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="33"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="37" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -3469,219 +3333,244 @@
       <c r="J6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="34"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="99"/>
+      <c r="I8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="34"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="97"/>
+      <c r="E9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="97"/>
+      <c r="I9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="61" t="s">
+      <c r="J9" s="97"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="96"/>
+      <c r="K10" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63" t="s">
+      <c r="D11" s="96"/>
+      <c r="E11" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F11" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G11" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63" t="s">
+      <c r="H11" s="96"/>
+      <c r="I11" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
+      <c r="J11" s="96"/>
+      <c r="K11" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="49" t="s">
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F12" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G12" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23" t="s">
+      <c r="H12" s="49"/>
+      <c r="I12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="108" t="s">
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="104" t="s">
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D17" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="110"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="101" t="s">
+      <c r="E17" s="84"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D18" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="113"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="102" t="s">
+      <c r="E18" s="87"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D19" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="112"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="E19" s="86"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D20" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="113"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="102" t="s">
+      <c r="E20" s="87"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D21" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="112"/>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="103" t="s">
+      <c r="E21" s="86"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D22" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="111"/>
+      <c r="E22" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3690,10 +3579,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,392 +3605,418 @@
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="38" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="41" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="34"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="34"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="34"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="97"/>
+      <c r="E11" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="34"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="34"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="51" t="s">
+      <c r="J13" s="96"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52" t="s">
+      <c r="D14" s="97"/>
+      <c r="E14" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="75" t="s">
+      <c r="J14" s="97"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="97"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F16" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G16" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H16" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="108" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="20" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-    </row>
-    <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+    </row>
+    <row r="21" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D21" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="116"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="105" t="s">
+      <c r="E21" s="84"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D22" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="119"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="102" t="s">
+      <c r="E22" s="91"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D23" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="117"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="101" t="s">
+      <c r="E23" s="89"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D24" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="118"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="102" t="s">
+      <c r="E24" s="90"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D25" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="117"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="101" t="s">
+      <c r="E25" s="89"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D26" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="118"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="102" t="s">
+      <c r="E26" s="90"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D27" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="117"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="101" t="s">
+      <c r="E27" s="89"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D28" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="118"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="102" t="s">
+      <c r="E28" s="90"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D29" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="117"/>
-    </row>
-    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="103" t="s">
+      <c r="E29" s="89"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D30" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="114"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
+      <c r="E30" s="88"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
@@ -4109,7 +4024,6 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4118,10 +4032,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I18:I19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,42 +4045,44 @@
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="65" t="s">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4178,14 +4094,17 @@
       <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="H6" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4197,29 +4116,32 @@
       <c r="F7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="70" t="s">
+      <c r="H7" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="46" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
@@ -4232,56 +4154,57 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="73">
+      <c r="G9" s="47">
         <v>30</v>
       </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="48" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="49" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="49" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76">
+      <c r="F10" s="49"/>
+      <c r="G10" s="50">
         <v>20</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="23" t="s">
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75">
+      <c r="F11" s="49"/>
+      <c r="G11" s="49">
         <v>11</v>
       </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4294,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4329,38 +4252,38 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="33"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="65" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4387,17 +4310,17 @@
       <c r="K6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="34"/>
+      <c r="M6" s="27"/>
       <c r="O6" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4424,10 +4347,10 @@
       <c r="K7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="34"/>
+      <c r="M7" s="27"/>
       <c r="O7" s="10" t="s">
         <v>131</v>
       </c>
@@ -4436,8 +4359,8 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="80" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="15"/>
@@ -4458,20 +4381,20 @@
       <c r="K8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="O8" s="86" t="s">
+      <c r="M8" s="27"/>
+      <c r="O8" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="86" t="s">
+      <c r="P8" s="60" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="B9" s="22"/>
+      <c r="C9" s="46" t="str">
         <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
@@ -4484,7 +4407,7 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>FI_Comm!E10</f>
+        <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
       <c r="G9" s="11">
@@ -4502,116 +4425,116 @@
       <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="47">
         <v>1</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="O9" s="85">
+      <c r="M9" s="27"/>
+      <c r="O9" s="59">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="59">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
+      <c r="B10" s="22"/>
+      <c r="C10" s="48" t="str">
         <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="49" t="str">
         <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="49" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75" t="str">
-        <f>FI_Comm!E10</f>
+      <c r="F10" s="49" t="str">
+        <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="49">
         <v>2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="49">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="49">
         <v>0.6</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="49">
         <v>0.5</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="49">
         <v>1</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="50">
         <v>1</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="O10" s="98">
+      <c r="M10" s="27"/>
+      <c r="O10" s="72">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="98">
+      <c r="P10" s="72">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="75" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="75" t="str">
-        <f>FI_Comm!E10</f>
+      <c r="F11" s="49" t="str">
+        <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="49">
         <v>2</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="49">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="49">
         <v>0.6</v>
       </c>
-      <c r="J11" s="75">
+      <c r="J11" s="49">
         <v>0.5</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="49">
         <v>1</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="50">
         <v>1</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
+      <c r="M11" s="27"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="O12" s="99">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="O12" s="73">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
@@ -4651,10 +4574,108 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="str">
+        <f>FI_Process!E15</f>
+        <v>PRE_TRANS_HV_LV</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f>FI_Process!F15</f>
+        <v>Transmission and distribution</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>FI_Comm!E10</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <f>133/157</f>
+        <v>0.84713375796178347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4676,78 +4697,79 @@
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="90" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="61">
         <v>2023</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="95" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="82" t="str">
+      <c r="B9" s="22"/>
+      <c r="C9" s="56" t="str">
         <f>FI_Comm!E10</f>
-        <v>ELC_HV</v>
+        <v>ELC_LV</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="83">
-        <v>100</v>
-      </c>
-      <c r="F9" s="34"/>
+      <c r="E9" s="57">
+        <f>100*Grid!G7</f>
+        <v>84.713375796178354</v>
+      </c>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4755,15 +4777,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4958,6 +4971,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4970,14 +4992,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4996,6 +5010,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="FI_Process" sheetId="2" r:id="rId5"/>
     <sheet name="Supply" sheetId="3" r:id="rId6"/>
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
-    <sheet name="Grid" sheetId="13" r:id="rId8"/>
-    <sheet name="Demand" sheetId="9" r:id="rId9"/>
+    <sheet name="Demand" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -522,52 +521,8 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Maurizio Gargiulo</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">With this symbol </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>\I:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>, this column is ignored from VEDA.
-It is just useful for your information</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="182">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1113,9 +1068,6 @@
   </si>
   <si>
     <t>Efficiency</t>
-  </si>
-  <si>
-    <t>PJ/Pja</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1903,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2162,7 +2114,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -4215,10 +4167,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P23"/>
+  <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4521,51 +4473,83 @@
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="O12" s="73">
+    <row r="12" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="49" t="str">
+        <f>FI_Process!E15</f>
+        <v>PRE_TRANS_HV_LV</v>
+      </c>
+      <c r="D12" s="49" t="str">
+        <f>FI_Process!F15</f>
+        <v>Transmission and distribution</v>
+      </c>
+      <c r="E12" s="49" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="F12" s="49" t="str">
+        <f>FI_Comm!E10</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49">
+        <v>0.84</v>
+      </c>
+      <c r="J12" s="49">
+        <v>1</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="27"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="O13" s="73">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-    </row>
+    <row r="20" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4574,107 +4558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="str">
-        <f>FI_Process!E15</f>
-        <v>PRE_TRANS_HV_LV</v>
-      </c>
-      <c r="C7" s="11" t="str">
-        <f>FI_Process!F15</f>
-        <v>Transmission and distribution</v>
-      </c>
-      <c r="D7" s="11" t="str">
-        <f>FI_Comm!E11</f>
-        <v>ELC_HV</v>
-      </c>
-      <c r="E7" s="11" t="str">
-        <f>FI_Comm!E10</f>
-        <v>ELC_LV</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <f>133/157</f>
-        <v>0.84713375796178347</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4759,8 +4647,8 @@
         <v>123</v>
       </c>
       <c r="E9" s="57">
-        <f>100*Grid!G7</f>
-        <v>84.713375796178354</v>
+        <f>100*0.84</f>
+        <v>84</v>
       </c>
       <c r="F9" s="27"/>
     </row>
